--- a/data/trans_dic/P24_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con problemas de estómago con bastante o mucha frecuencia</t>
+          <t>Población con problemas de estómago con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6,3%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,42%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23,41%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>18,74%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>22,02%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>5,97%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>6,45%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>7,5%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>8,47%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6,63%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>14,91%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>12,19%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>14,97%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,42</t>
+          <t>1,61; 7,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,45</t>
+          <t>0,67; 6,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,06</t>
+          <t>0,57; 5,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,84</t>
+          <t>0,99; 7,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 12,58</t>
+          <t>2,26; 12,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 13,5</t>
+          <t>2,61; 11,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 17,85</t>
+          <t>4,11; 16,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,46; 17,77</t>
+          <t>4,94; 13,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,34; 19,11</t>
+          <t>6,76; 18,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,33; 27,73</t>
+          <t>8,96; 18,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,67</t>
+          <t>9,16; 18,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 10,2</t>
+          <t>16,7; 31,73</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,7</t>
+          <t>11,79; 27,48</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,99; 11,89</t>
+          <t>15,43; 28,92</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>8,28; 17,27</t>
+          <t>3,79; 8,9</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 10,09</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,02; 10,37</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 11,83</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 19,6</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>8,56; 17,71</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>10,67; 19,68</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>14,98%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>10,05%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20,67%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>7,48%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>9,68%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>13,42%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>13,62%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>18,11%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>20,57%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>5,34%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>8,81%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>10,39%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>12,98%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>10,36%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,84%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>13,97%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,53</t>
+          <t>1,37; 6,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 19,92</t>
+          <t>3,35; 21,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 12,62</t>
+          <t>4,31; 11,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 22,27</t>
+          <t>6,74; 20,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 17,17</t>
+          <t>8,12; 30,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 11,37</t>
+          <t>5,27; 16,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 15,48</t>
+          <t>13,25; 30,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,35; 18,56</t>
+          <t>4,72; 12,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,1; 19,88</t>
+          <t>5,27; 14,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,81; 24,73</t>
+          <t>9,58; 18,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,83</t>
+          <t>10,13; 19,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 15,06</t>
+          <t>16,77; 29,49</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,72</t>
+          <t>12,38; 25,32</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 17,59</t>
+          <t>15,28; 27,56</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 18,08</t>
+          <t>3,57; 7,75</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 15,66</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>7,81; 13,8</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,47; 17,63</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>13,59; 26,96</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>10,3; 18,56</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>16,02; 26,42</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12,88%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>20,75%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>11,46%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>13,15%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
           <t>10,5%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>13,48%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,69%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>13,45%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>11,72%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>13,04%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,73%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>12,2%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>16,12%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>9,81%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>11,78%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>13,09%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>10,48%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
         <is>
           <t>14,71%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>16,16%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 12,69</t>
+          <t>4,56; 14,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 17,47</t>
+          <t>7,21; 17,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,67; 19,02</t>
+          <t>9,59; 18,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 12,35</t>
+          <t>5,74; 12,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,14; 18,24</t>
+          <t>7,19; 16,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 16,32</t>
+          <t>9,25; 18,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,12; 19,62</t>
+          <t>7,99; 18,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,44; 16,84</t>
+          <t>8,65; 16,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 15,52</t>
+          <t>8,39; 16,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 21,21</t>
+          <t>9,69; 16,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 12,91</t>
+          <t>9,22; 16,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 15,92</t>
+          <t>12,98; 22,66</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>10,56; 16,02</t>
+          <t>11,12; 20,99</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,29; 12,62</t>
+          <t>15,1; 26,29</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 18,52</t>
+          <t>7,44; 13,34</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>8,62; 14,78</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>10,63; 16,17</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 13,23</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>11,51; 17,96</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>11,8; 18,42</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>12,76; 20,21</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,51%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>12,1%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>14,31%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>16,13%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>15,12%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>21,33%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19,39%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>9,18%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>11,0%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>13,06%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>11,28%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>19,31%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,4%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>13,71%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>19,32%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,92</t>
+          <t>3,78; 9,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 10,99</t>
+          <t>4,63; 10,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 13,69</t>
+          <t>6,4; 13,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 12,39</t>
+          <t>4,59; 12,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,45; 24,32</t>
+          <t>6,02; 12,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 15,7</t>
+          <t>12,76; 24,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,35; 18,01</t>
+          <t>11,54; 23,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,57; 20,09</t>
+          <t>9,0; 15,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,77; 18,98</t>
+          <t>11,13; 18,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,44; 27,1</t>
+          <t>12,96; 20,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 11,55</t>
+          <t>11,85; 19,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 13,79</t>
+          <t>14,04; 22,2</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>10,51; 16,0</t>
+          <t>16,47; 26,82</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>8,97; 13,97</t>
+          <t>14,85; 24,68</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 23,84</t>
+          <t>7,02; 11,48</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 13,68</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>10,61; 15,82</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 14,22</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>11,22; 16,73</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>15,59; 23,53</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>14,46; 22,07</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>11,17%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>11,73%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>22,15%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>8,1%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>9,23%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>12,06%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>11,6%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>12,1%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>10,5%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>16,9%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>17,69%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,01</t>
+          <t>2,41; 7,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,84; 11,11</t>
+          <t>3,88; 10,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,16</t>
+          <t>5,59; 12,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,04</t>
+          <t>2,72; 8,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,97; 16,7</t>
+          <t>4,17; 11,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,24; 16,5</t>
+          <t>6,79; 16,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,9; 16,5</t>
+          <t>10,04; 19,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,33; 20,43</t>
+          <t>7,56; 16,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,12; 22,7</t>
+          <t>8,22; 17,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,06; 28,5</t>
+          <t>11,36; 20,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,73</t>
+          <t>13,38; 22,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,21</t>
+          <t>9,21; 19,46</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,4; 15,67</t>
+          <t>16,53; 27,96</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,41</t>
+          <t>15,83; 26,37</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>13,54; 20,78</t>
+          <t>5,89; 10,89</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 12,38</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>9,47; 14,98</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>9,0; 14,75</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>7,81; 14,1</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 20,81</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>13,95; 21,38</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1884,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1545,62 +1894,92 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>6,4%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>10,98%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>11,61%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>14,26%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>13,4%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>15,88%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>29,01%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>8,05%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>10,61%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>11,38%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>10,9%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>11,87%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>11,07%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>22,3%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,56</t>
+          <t>1,85; 7,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,7; 21,34</t>
+          <t>4,54; 20,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,09; 12,81</t>
+          <t>4,57; 13,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,48; 12,56</t>
+          <t>4,61; 12,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,88</t>
+          <t>3,89; 13,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,65; 14,58</t>
+          <t>3,08; 12,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,56; 16,91</t>
+          <t>8,64; 19,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,03; 19,12</t>
+          <t>7,64; 15,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,22; 18,42</t>
+          <t>8,21; 17,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,35; 24,86</t>
+          <t>10,28; 19,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,81; 10,51</t>
+          <t>9,56; 17,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,39; 15,88</t>
+          <t>14,88; 32,53</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>8,5; 14,85</t>
+          <t>10,13; 23,93</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>8,05; 14,21</t>
+          <t>22,08; 37,03</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8,42; 17,19</t>
+          <t>5,85; 10,77</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>7,64; 16,54</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>8,76; 15,27</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 14,2</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>11,51; 21,92</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>7,92; 16,36</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 27,86</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>11,25%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>10,61%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>12,07%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>14,15%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14,23%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>18,57%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>22,37%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>7,91%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>9,87%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
         <is>
           <t>11,42%</t>
         </is>
       </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>10,97%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>14,92%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,43</t>
+          <t>3,79; 6,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,95; 10,45</t>
+          <t>5,94; 10,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,19; 10,31</t>
+          <t>6,98; 10,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,73</t>
+          <t>6,05; 9,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,44</t>
+          <t>7,79; 12,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,2; 12,1</t>
+          <t>9,32; 13,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 14,12</t>
+          <t>12,06; 17,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,3; 15,84</t>
+          <t>9,14; 12,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,59; 16,22</t>
+          <t>10,35; 13,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16,19; 21,31</t>
+          <t>12,49; 15,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 8,91</t>
+          <t>12,42; 15,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,46</t>
+          <t>17,09; 22,13</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>10,3; 12,64</t>
+          <t>16,1; 21,14</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>9,77; 12,38</t>
+          <t>19,89; 25,04</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>13,37; 16,74</t>
+          <t>6,92; 8,93</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 11,43</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>10,33; 12,51</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>9,78; 12,31</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>13,08; 16,73</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>13,26; 16,5</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>16,66; 20,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas de estómago con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19305</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11069</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9944</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15895</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28954</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2625</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3879</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38940</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>53283</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>67030</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>68646</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>111732</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>8489</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>58245</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>64351</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>76974</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>84541</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>140686</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>9635</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>12368</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8270; 38826</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3375; 30399</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2990; 27242</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5034; 40435</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10561; 59653</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1087; 4877</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1809; 7060</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22875; 62355</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>31693; 86001</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>45926; 97152</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>47071; 96465</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>79710; 151440</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4409; 10277</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5948; 11148</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>36973; 86861</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>39744; 97952</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>52069; 107554</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>60674; 121140</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>103741; 184936</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>6763; 14001</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>8813; 16257</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18976</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>50204</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42053</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>68127</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>86889</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9804</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>38806</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>46594</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>68929</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>74607</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>114872</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8550</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9465</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>57782</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>96798</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>110982</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>142735</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>201761</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>13562</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>19269</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7729; 38160</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19193; 122673</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24360; 65906</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>40048; 118856</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>47060; 176132</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2630; 8339</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6284; 14453</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24488; 63036</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>27222; 73185</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>48502; 94725</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>52409; 100629</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>84710; 148960</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5845; 11953</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7031; 12678</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>38611; 83840</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>59575; 170665</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>83690; 147847</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>105283; 196008</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>147468; 292528</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>10002; 18023</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>14972; 24684</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>52978</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>75926</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>91398</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>58918</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>78679</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8096</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>81350</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>84362</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>92527</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>87387</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>124135</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>8656</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>11382</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>134328</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>160287</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>183925</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>146305</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>202814</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>16752</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>18634</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>30789; 94828</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49484; 117517</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>65309; 124502</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>39015; 84732</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>48821; 112413</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5569; 11102</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4830; 11112</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>60075; 113705</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>59756; 116104</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>69608; 119595</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>65804; 114170</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>93112; 162587</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5967; 11268</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>8285; 14420</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>101976; 182786</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>120561; 206717</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>148739; 226223</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>117505; 184451</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>160738; 250842</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>13434; 20983</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>14714; 23296</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>38103</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>47180</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>61814</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>48037</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60866</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10198</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9404</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>85093</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>99742</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>109279</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>99534</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>119736</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>11185</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>10328</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>123197</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>146922</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>171093</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>147571</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>180602</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>21383</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>19733</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24146; 58877</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29970; 70672</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>41209; 87158</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>29242; 77620</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>39445; 84816</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7437; 14307</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6571; 13154</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>63272; 112277</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>76280; 128215</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>86812; 139227</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>77961; 126152</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>92869; 146803</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>8633; 14060</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>7913; 13149</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>94197; 153978</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>115397; 182379</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>139386; 207831</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>116246; 184149</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>147741; 220347</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>17260; 26046</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>15942; 24331</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23179</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33032</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>44008</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>25574</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>33945</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4968</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6508</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>58968</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>61984</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>77327</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>90547</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>71733</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>10748</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>9676</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>82147</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>95016</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>121335</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>116120</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>105678</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>15716</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>16184</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12314; 40207</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19217; 51684</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>28010; 61552</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13400; 41738</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>20400; 54064</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3020; 7234</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4506; 8963</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>37974; 83230</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>41819; 90544</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>56937; 102246</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>68668; 116399</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>47601; 100590</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>8021; 13570</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>7376; 12289</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>59731; 110414</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>67460; 124355</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>95014; 150204</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>90580; 148486</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>78549; 141848</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>12363; 19358</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>12761; 19554</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>22658</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>49307</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>39383</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>42902</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>43497</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2999</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>80261</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>88162</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>99477</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>92496</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>155791</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>10116</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>18291</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>102919</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>137469</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>138861</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>135398</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>199288</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>13115</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>24278</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10132; 40326</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>24628; 112474</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>23803; 71111</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>24540; 68818</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>22038; 73910</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1442; 5713</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3963; 9099</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>55853; 109838</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>58955; 124849</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>70572; 133600</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>65989; 123716</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>108555; 237272</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>6455; 15249</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>13922; 23345</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>74820; 137615</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>96304; 208430</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>105786; 184423</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>100674; 173578</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>149152; 283999</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>8758; 18086</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>19022; 30335</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>175199</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>266717</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>288600</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>259454</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>332829</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>33899</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>42834</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>383418</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>434127</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>514569</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>513216</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>698000</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>56265</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>67631</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>558617</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>700844</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>803169</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>772670</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>1030829</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>90164</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>110466</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>130594; 225350</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>204659; 367340</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>239744; 348828</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>208573; 334567</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>267756; 435213</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>28079; 41484</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>36125; 52025</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>330274; 439408</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>373564; 505195</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>448891; 574373</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>448122; 575270</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>616423; 798262</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>48773; 64034</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>60142; 75701</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>488756; 630398</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>602876; 806330</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>726253; 879406</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>690148; 868051</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>921401; 1178049</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>80149; 99710</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>100279; 122657</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>